--- a/Demo Planning/EC551_Lab1_TestProgram_Sequence.xlsx
+++ b/Demo Planning/EC551_Lab1_TestProgram_Sequence.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\EC551\Labs\Lab1\Lab 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad\eng\users\c\n\cnaught1\My Documents\GitHub\EC551_Labs\Demo Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCE92BA-D752-4B37-AC90-3D9368E9D448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476CE0D6-27BB-48A4-9C7D-D073ED7CC0B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="79">
   <si>
     <t>Instruction</t>
   </si>
@@ -463,7 +463,13 @@
     <t>Mem[1]=10</t>
   </si>
   <si>
-    <t>Mem[10]=11</t>
+    <t>111</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Mem[10]=111</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +533,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -621,6 +639,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,10 +958,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1008,7 +1028,7 @@
       <c r="B2" s="9">
         <v>31</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -1031,13 +1051,13 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="str">
-        <f t="shared" ref="A3:A33" si="0">DEC2HEX(B3,2)</f>
+        <f t="shared" ref="A3:A49" si="0">DEC2HEX(B3,2)</f>
         <v>20</v>
       </c>
       <c r="B3" s="9">
         <v>32</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -1068,7 +1088,7 @@
       <c r="B4" s="9">
         <v>33</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1101,7 +1121,7 @@
       <c r="B5" s="9">
         <v>34</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -1134,7 +1154,7 @@
       <c r="B6" s="9">
         <v>35</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -1169,7 +1189,7 @@
       <c r="B7" s="9">
         <v>36</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -1206,7 +1226,7 @@
       <c r="B8" s="9">
         <v>37</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1245,7 +1265,7 @@
       <c r="B9" s="9">
         <v>38</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -1284,7 +1304,7 @@
       <c r="B10" s="9">
         <v>39</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1323,7 +1343,7 @@
       <c r="B11" s="9">
         <v>40</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -1362,7 +1382,7 @@
       <c r="B12" s="9">
         <v>41</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1387,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L12" s="2">
         <v>42</v>
@@ -1401,7 +1421,7 @@
       <c r="B13" s="9">
         <v>42</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -1426,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L13" s="2">
         <v>43</v>
@@ -1440,7 +1460,7 @@
       <c r="B14" s="9">
         <v>43</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1465,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L14" s="2">
         <v>44</v>
@@ -1507,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L15" s="2">
         <v>45</v>
@@ -1521,7 +1541,7 @@
       <c r="B16" s="9">
         <v>45</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -1546,13 +1566,13 @@
         <v>1</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L16" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>2E</v>
@@ -1585,15 +1605,15 @@
         <v>1</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L17" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="8" t="str">
-        <f t="shared" ref="A18:A27" si="1">DEC2HEX(B18,2)</f>
+        <f t="shared" ref="A18:A43" si="1">DEC2HEX(B18,2)</f>
         <v>2B</v>
       </c>
       <c r="B18" s="9">
@@ -1624,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L18" s="2">
         <v>44</v>
@@ -1633,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2C</v>
@@ -1666,13 +1686,13 @@
         <v>1</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L19" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2D</v>
@@ -1705,13 +1725,13 @@
         <v>1</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L20" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2E</v>
@@ -1744,13 +1764,13 @@
         <v>1</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L21" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2B</v>
@@ -1783,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L22" s="2">
         <v>44</v>
@@ -1792,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2C</v>
@@ -1825,13 +1845,13 @@
         <v>1</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L23" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2D</v>
@@ -1864,13 +1884,13 @@
         <v>1</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L24" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2E</v>
@@ -1903,473 +1923,1109 @@
         <v>1</v>
       </c>
       <c r="K25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="8" t="str">
+        <f t="shared" ref="A26:A29" si="2">DEC2HEX(B26,2)</f>
+        <v>2B</v>
+      </c>
+      <c r="B26" s="9">
+        <v>43</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="2">
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>1</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="15">
+        <v>1</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="2">
+        <v>44</v>
+      </c>
+      <c r="M26" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>2C</v>
+      </c>
+      <c r="B27" s="9">
+        <v>44</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="15">
+        <v>1</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="8" t="str">
+    <row r="28" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>2D</v>
+      </c>
+      <c r="B28" s="9">
+        <v>45</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="15">
+        <v>1</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>2E</v>
+      </c>
+      <c r="B29" s="9">
+        <v>46</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13">
+        <v>1</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" s="15">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A30" s="8" t="str">
+        <f t="shared" ref="A30:A33" si="3">DEC2HEX(B30,2)</f>
+        <v>2B</v>
+      </c>
+      <c r="B30" s="9">
+        <v>43</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="13">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13">
+        <v>1</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" s="15">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" s="2">
+        <v>44</v>
+      </c>
+      <c r="M30" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>2C</v>
+      </c>
+      <c r="B31" s="9">
+        <v>44</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13">
+        <v>1</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="15">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L31" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>2D</v>
+      </c>
+      <c r="B32" s="9">
+        <v>45</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="13">
+        <v>1</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="15">
+        <v>1</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A33" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>2E</v>
+      </c>
+      <c r="B33" s="9">
+        <v>46</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13">
+        <v>1</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="15">
+        <v>1</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A34" s="8" t="str">
+        <f t="shared" ref="A34:A37" si="4">DEC2HEX(B34,2)</f>
+        <v>2B</v>
+      </c>
+      <c r="B34" s="9">
+        <v>43</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="13">
+        <v>1</v>
+      </c>
+      <c r="H34" s="13">
+        <v>1</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="15">
+        <v>1</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L34" s="2">
+        <v>44</v>
+      </c>
+      <c r="M34" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>2C</v>
+      </c>
+      <c r="B35" s="9">
+        <v>44</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="13">
+        <v>1</v>
+      </c>
+      <c r="H35" s="13">
+        <v>1</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" s="15">
+        <v>1</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L35" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>2D</v>
+      </c>
+      <c r="B36" s="9">
+        <v>45</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="13">
+        <v>1</v>
+      </c>
+      <c r="H36" s="13">
+        <v>1</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" s="15">
+        <v>1</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L36" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>2E</v>
+      </c>
+      <c r="B37" s="9">
+        <v>46</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13">
+        <v>1</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="15">
+        <v>1</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L37" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A38" s="8" t="str">
+        <f t="shared" ref="A38:A41" si="5">DEC2HEX(B38,2)</f>
+        <v>2B</v>
+      </c>
+      <c r="B38" s="9">
+        <v>43</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="13">
+        <v>1</v>
+      </c>
+      <c r="H38" s="13">
+        <v>1</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J38" s="15">
+        <v>1</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L38" s="2">
+        <v>44</v>
+      </c>
+      <c r="M38" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A39" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>2C</v>
+      </c>
+      <c r="B39" s="9">
+        <v>44</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="13">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13">
+        <v>1</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" s="15">
+        <v>1</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L39" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A40" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>2D</v>
+      </c>
+      <c r="B40" s="9">
+        <v>45</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="13">
+        <v>1</v>
+      </c>
+      <c r="H40" s="13">
+        <v>1</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J40" s="15">
+        <v>1</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>2E</v>
+      </c>
+      <c r="B41" s="9">
+        <v>46</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="13">
+        <v>1</v>
+      </c>
+      <c r="H41" s="13">
+        <v>1</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" s="15">
+        <v>1</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L41" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2B</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B42" s="9">
         <v>43</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="13">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13">
-        <v>1</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" s="15">
-        <v>1</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L26" s="2">
+      <c r="F42" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="13">
+        <v>1</v>
+      </c>
+      <c r="H42" s="13">
+        <v>1</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J42" s="15">
+        <v>1</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L42" s="2">
         <v>44</v>
       </c>
-      <c r="M26" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="8" t="str">
+      <c r="M42" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2C</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B43" s="9">
         <v>44</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D43" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="13">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13">
-        <v>1</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="15">
-        <v>1</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L27" s="2">
+      <c r="F43" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="13">
+        <v>1</v>
+      </c>
+      <c r="H43" s="13">
+        <v>1</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" s="15">
+        <v>1</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L43" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A28" s="8" t="str">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>2F</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B44" s="9">
         <v>47</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C44" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="13">
-        <v>1</v>
-      </c>
-      <c r="H28" s="13">
-        <v>1</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J28" s="15">
-        <v>1</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L28" s="2">
+      <c r="F44" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="13">
+        <v>1</v>
+      </c>
+      <c r="H44" s="13">
+        <v>1</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J44" s="15">
+        <v>1</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A29" s="8" t="str">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A45" s="8" t="str">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B45" s="9">
         <v>48</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C45" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D45" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E45" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="13">
-        <v>1</v>
-      </c>
-      <c r="H29" s="13">
-        <v>1</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" s="15">
-        <v>1</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L29" s="2">
+      <c r="F45" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="13">
+        <v>1</v>
+      </c>
+      <c r="H45" s="13">
+        <v>1</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J45" s="15">
+        <v>1</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L45" s="2">
         <v>49</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N45" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A30" s="8" t="str">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B46" s="9">
         <v>49</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C46" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="13">
-        <v>1</v>
-      </c>
-      <c r="H30" s="13">
-        <v>1</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" s="15">
-        <v>1</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" s="2">
+      <c r="F46" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="13">
+        <v>1</v>
+      </c>
+      <c r="H46" s="13">
+        <v>1</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46" s="15">
+        <v>1</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L46" s="2">
         <v>50</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A31" s="8" t="str">
+      <c r="M46" s="2"/>
+      <c r="N46" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A47" s="8" t="str">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B47" s="9">
         <v>50</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C47" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E47" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="13">
-        <v>1</v>
-      </c>
-      <c r="H31" s="13">
-        <v>1</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" s="15">
-        <v>1</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L31" s="2">
+      <c r="F47" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="13">
+        <v>1</v>
+      </c>
+      <c r="H47" s="13">
+        <v>1</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J47" s="15">
+        <v>1</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L47" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A32" s="8" t="str">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B48" s="9">
         <v>51</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C48" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="13">
-        <v>1</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" s="15">
-        <v>1</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L32" s="2">
+      <c r="F48" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" s="13">
+        <v>1</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J48" s="15">
+        <v>1</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L48" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="8" t="str">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B49" s="9">
         <v>52</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C49" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="13">
-        <v>1</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J33" s="15">
-        <v>1</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L33" s="2">
+      <c r="F49" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="13">
+        <v>1</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J49" s="15">
+        <v>1</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L49" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B34" s="1"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B35" s="1"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B36" s="1"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B37" s="1"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B38" s="1"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B39" s="1"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B40" s="1"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B41" s="1"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B42" s="1"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B43" s="1"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B44" s="1"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B45" s="1"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B46" s="1"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B47" s="1"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B48" s="1"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B49" s="1"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="2:3" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="2:3" ht="15.75" customHeight="1">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="2:3" ht="15.75" customHeight="1">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="2:3" ht="15.75" customHeight="1">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="2:3" ht="15.75" customHeight="1">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="2:3" ht="15.75" customHeight="1">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="B55" s="1"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="2:3" ht="15.75" customHeight="1">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="B56" s="1"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="2:3" ht="12.75">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="B57" s="1"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="2:3" ht="12.75">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="B58" s="1"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="2:3" ht="12.75">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="B59" s="1"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="2:3" ht="12.75">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="B60" s="1"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="2:3" ht="12.75">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="B61" s="1"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="2:3" ht="12.75">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="B62" s="1"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="2:3" ht="12.75">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="B63" s="1"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="2:3" ht="15.75" customHeight="1">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B64" s="1"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="3:3" ht="15.75" customHeight="1">
+    <row r="65" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B65" s="1"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="3:3" ht="15.75" customHeight="1">
+    <row r="66" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B66" s="1"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="3:3" ht="15.75" customHeight="1">
+    <row r="67" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B67" s="1"/>
       <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B68" s="1"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B69" s="1"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B70" s="1"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B71" s="1"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B72" s="1"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="2:3" ht="12.75">
+      <c r="B73" s="1"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="2:3" ht="12.75">
+      <c r="B74" s="1"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="2:3" ht="12.75">
+      <c r="B75" s="1"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="2:3" ht="12.75">
+      <c r="B76" s="1"/>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="2:3" ht="12.75">
+      <c r="B77" s="1"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="2:3" ht="12.75">
+      <c r="B78" s="1"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="2:3" ht="12.75">
+      <c r="B79" s="1"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="2:3" ht="15.75" customHeight="1">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" ht="15.75" customHeight="1">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" ht="15.75" customHeight="1">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" ht="15.75" customHeight="1">
+      <c r="C83" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="E2" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2378,7 +3034,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Demo Planning/EC551_Lab1_TestProgram_Sequence.xlsx
+++ b/Demo Planning/EC551_Lab1_TestProgram_Sequence.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad\eng\users\c\n\cnaught1\My Documents\GitHub\EC551_Labs\Demo Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\EC551\Labs\Lab1\Final Copy\EC551_Labs\Demo Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476CE0D6-27BB-48A4-9C7D-D073ED7CC0B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0136512-2696-4CFB-9334-321B730D7846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,12 +539,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -640,7 +634,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,16 +953,17 @@
   </sheetPr>
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="4" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="4" customWidth="1"/>
     <col min="6" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -1502,7 +1496,7 @@
       <c r="B15" s="9">
         <v>44</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -1541,7 +1535,7 @@
       <c r="B16" s="9">
         <v>45</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -1580,7 +1574,7 @@
       <c r="B17" s="9">
         <v>46</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -1619,7 +1613,7 @@
       <c r="B18" s="9">
         <v>43</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -1661,7 +1655,7 @@
       <c r="B19" s="9">
         <v>44</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -1700,7 +1694,7 @@
       <c r="B20" s="9">
         <v>45</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -1739,7 +1733,7 @@
       <c r="B21" s="9">
         <v>46</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -1778,7 +1772,7 @@
       <c r="B22" s="9">
         <v>43</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -1820,7 +1814,7 @@
       <c r="B23" s="9">
         <v>44</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -1859,7 +1853,7 @@
       <c r="B24" s="9">
         <v>45</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -1898,7 +1892,7 @@
       <c r="B25" s="9">
         <v>46</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -1937,7 +1931,7 @@
       <c r="B26" s="9">
         <v>43</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -1979,7 +1973,7 @@
       <c r="B27" s="9">
         <v>44</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -2018,7 +2012,7 @@
       <c r="B28" s="9">
         <v>45</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -2057,7 +2051,7 @@
       <c r="B29" s="9">
         <v>46</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -2096,7 +2090,7 @@
       <c r="B30" s="9">
         <v>43</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="10" t="s">
@@ -2138,7 +2132,7 @@
       <c r="B31" s="9">
         <v>44</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -2177,7 +2171,7 @@
       <c r="B32" s="9">
         <v>45</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -2216,7 +2210,7 @@
       <c r="B33" s="9">
         <v>46</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -2255,7 +2249,7 @@
       <c r="B34" s="9">
         <v>43</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -2297,7 +2291,7 @@
       <c r="B35" s="9">
         <v>44</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -2336,7 +2330,7 @@
       <c r="B36" s="9">
         <v>45</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -2375,7 +2369,7 @@
       <c r="B37" s="9">
         <v>46</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="10" t="s">
@@ -2414,7 +2408,7 @@
       <c r="B38" s="9">
         <v>43</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -2456,7 +2450,7 @@
       <c r="B39" s="9">
         <v>44</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -2495,7 +2489,7 @@
       <c r="B40" s="9">
         <v>45</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="10" t="s">
@@ -2534,7 +2528,7 @@
       <c r="B41" s="9">
         <v>46</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="10" t="s">
@@ -2573,7 +2567,7 @@
       <c r="B42" s="9">
         <v>43</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -2615,7 +2609,7 @@
       <c r="B43" s="9">
         <v>44</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="10" t="s">

--- a/Demo Planning/EC551_Lab1_TestProgram_Sequence.xlsx
+++ b/Demo Planning/EC551_Lab1_TestProgram_Sequence.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad\eng\users\c\n\cnaught1\My Documents\GitHub\EC551_Labs\Demo Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\EC551\Labs\Lab1\Final Copy\EC551_Labs\Demo Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476CE0D6-27BB-48A4-9C7D-D073ED7CC0B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4795F793-EC8F-4115-9A5C-5D4CAD6E9688}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,14 +960,15 @@
   </sheetPr>
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="4" customWidth="1"/>
